--- a/elo/python/ski/men/menupdate.xlsx
+++ b/elo/python/ski/men/menupdate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6624" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="233">
   <si>
     <t>date</t>
   </si>
@@ -1070,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P836"/>
+  <dimension ref="A1:P896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42660,6 +42660,3006 @@
         <v>1171.941624493662</v>
       </c>
     </row>
+    <row r="837" spans="1:16">
+      <c r="A837" s="1">
+        <v>0</v>
+      </c>
+      <c r="B837">
+        <v>20210106</v>
+      </c>
+      <c r="C837" t="s">
+        <v>20</v>
+      </c>
+      <c r="D837" t="s">
+        <v>25</v>
+      </c>
+      <c r="E837" t="s">
+        <v>26</v>
+      </c>
+      <c r="F837" t="s">
+        <v>27</v>
+      </c>
+      <c r="G837" t="s">
+        <v>29</v>
+      </c>
+      <c r="H837" t="s">
+        <v>31</v>
+      </c>
+      <c r="I837">
+        <v>1</v>
+      </c>
+      <c r="J837" t="s">
+        <v>36</v>
+      </c>
+      <c r="K837" t="s">
+        <v>206</v>
+      </c>
+      <c r="L837">
+        <v>5167</v>
+      </c>
+      <c r="M837">
+        <v>2021</v>
+      </c>
+      <c r="N837">
+        <v>12</v>
+      </c>
+      <c r="O837">
+        <v>1839.296886381811</v>
+      </c>
+      <c r="P837">
+        <v>1844.706620363327</v>
+      </c>
+    </row>
+    <row r="838" spans="1:16">
+      <c r="A838" s="1">
+        <v>1</v>
+      </c>
+      <c r="B838">
+        <v>20210106</v>
+      </c>
+      <c r="C838" t="s">
+        <v>20</v>
+      </c>
+      <c r="D838" t="s">
+        <v>25</v>
+      </c>
+      <c r="E838" t="s">
+        <v>26</v>
+      </c>
+      <c r="F838" t="s">
+        <v>27</v>
+      </c>
+      <c r="G838" t="s">
+        <v>29</v>
+      </c>
+      <c r="H838" t="s">
+        <v>31</v>
+      </c>
+      <c r="I838">
+        <v>2</v>
+      </c>
+      <c r="J838" t="s">
+        <v>48</v>
+      </c>
+      <c r="K838" t="s">
+        <v>206</v>
+      </c>
+      <c r="L838">
+        <v>5196</v>
+      </c>
+      <c r="M838">
+        <v>2021</v>
+      </c>
+      <c r="N838">
+        <v>12</v>
+      </c>
+      <c r="O838">
+        <v>1628.033551503258</v>
+      </c>
+      <c r="P838">
+        <v>1641.455210162953</v>
+      </c>
+    </row>
+    <row r="839" spans="1:16">
+      <c r="A839" s="1">
+        <v>2</v>
+      </c>
+      <c r="B839">
+        <v>20210106</v>
+      </c>
+      <c r="C839" t="s">
+        <v>20</v>
+      </c>
+      <c r="D839" t="s">
+        <v>25</v>
+      </c>
+      <c r="E839" t="s">
+        <v>26</v>
+      </c>
+      <c r="F839" t="s">
+        <v>27</v>
+      </c>
+      <c r="G839" t="s">
+        <v>29</v>
+      </c>
+      <c r="H839" t="s">
+        <v>31</v>
+      </c>
+      <c r="I839">
+        <v>3</v>
+      </c>
+      <c r="J839" t="s">
+        <v>50</v>
+      </c>
+      <c r="K839" t="s">
+        <v>206</v>
+      </c>
+      <c r="L839">
+        <v>39</v>
+      </c>
+      <c r="M839">
+        <v>2021</v>
+      </c>
+      <c r="N839">
+        <v>12</v>
+      </c>
+      <c r="O839">
+        <v>1642.306631373602</v>
+      </c>
+      <c r="P839">
+        <v>1653.918494919221</v>
+      </c>
+    </row>
+    <row r="840" spans="1:16">
+      <c r="A840" s="1">
+        <v>3</v>
+      </c>
+      <c r="B840">
+        <v>20210106</v>
+      </c>
+      <c r="C840" t="s">
+        <v>20</v>
+      </c>
+      <c r="D840" t="s">
+        <v>25</v>
+      </c>
+      <c r="E840" t="s">
+        <v>26</v>
+      </c>
+      <c r="F840" t="s">
+        <v>27</v>
+      </c>
+      <c r="G840" t="s">
+        <v>29</v>
+      </c>
+      <c r="H840" t="s">
+        <v>31</v>
+      </c>
+      <c r="I840">
+        <v>4</v>
+      </c>
+      <c r="J840" t="s">
+        <v>76</v>
+      </c>
+      <c r="K840" t="s">
+        <v>206</v>
+      </c>
+      <c r="L840">
+        <v>2797</v>
+      </c>
+      <c r="M840">
+        <v>2021</v>
+      </c>
+      <c r="N840">
+        <v>12</v>
+      </c>
+      <c r="O840">
+        <v>1514.2021227691</v>
+      </c>
+      <c r="P840">
+        <v>1533.02995730096</v>
+      </c>
+    </row>
+    <row r="841" spans="1:16">
+      <c r="A841" s="1">
+        <v>4</v>
+      </c>
+      <c r="B841">
+        <v>20210106</v>
+      </c>
+      <c r="C841" t="s">
+        <v>20</v>
+      </c>
+      <c r="D841" t="s">
+        <v>25</v>
+      </c>
+      <c r="E841" t="s">
+        <v>26</v>
+      </c>
+      <c r="F841" t="s">
+        <v>27</v>
+      </c>
+      <c r="G841" t="s">
+        <v>29</v>
+      </c>
+      <c r="H841" t="s">
+        <v>31</v>
+      </c>
+      <c r="I841">
+        <v>5</v>
+      </c>
+      <c r="J841" t="s">
+        <v>56</v>
+      </c>
+      <c r="K841" t="s">
+        <v>206</v>
+      </c>
+      <c r="L841">
+        <v>5207</v>
+      </c>
+      <c r="M841">
+        <v>2021</v>
+      </c>
+      <c r="N841">
+        <v>12</v>
+      </c>
+      <c r="O841">
+        <v>1658.645206681322</v>
+      </c>
+      <c r="P841">
+        <v>1667.366067441292</v>
+      </c>
+    </row>
+    <row r="842" spans="1:16">
+      <c r="A842" s="1">
+        <v>5</v>
+      </c>
+      <c r="B842">
+        <v>20210106</v>
+      </c>
+      <c r="C842" t="s">
+        <v>20</v>
+      </c>
+      <c r="D842" t="s">
+        <v>25</v>
+      </c>
+      <c r="E842" t="s">
+        <v>26</v>
+      </c>
+      <c r="F842" t="s">
+        <v>27</v>
+      </c>
+      <c r="G842" t="s">
+        <v>29</v>
+      </c>
+      <c r="H842" t="s">
+        <v>31</v>
+      </c>
+      <c r="I842">
+        <v>6</v>
+      </c>
+      <c r="J842" t="s">
+        <v>166</v>
+      </c>
+      <c r="K842" t="s">
+        <v>208</v>
+      </c>
+      <c r="L842">
+        <v>29</v>
+      </c>
+      <c r="M842">
+        <v>2021</v>
+      </c>
+      <c r="N842">
+        <v>12</v>
+      </c>
+      <c r="O842">
+        <v>1510.780158034868</v>
+      </c>
+      <c r="P842">
+        <v>1527.852794684917</v>
+      </c>
+    </row>
+    <row r="843" spans="1:16">
+      <c r="A843" s="1">
+        <v>6</v>
+      </c>
+      <c r="B843">
+        <v>20210106</v>
+      </c>
+      <c r="C843" t="s">
+        <v>20</v>
+      </c>
+      <c r="D843" t="s">
+        <v>25</v>
+      </c>
+      <c r="E843" t="s">
+        <v>26</v>
+      </c>
+      <c r="F843" t="s">
+        <v>27</v>
+      </c>
+      <c r="G843" t="s">
+        <v>29</v>
+      </c>
+      <c r="H843" t="s">
+        <v>31</v>
+      </c>
+      <c r="I843">
+        <v>7</v>
+      </c>
+      <c r="J843" t="s">
+        <v>167</v>
+      </c>
+      <c r="K843" t="s">
+        <v>206</v>
+      </c>
+      <c r="L843">
+        <v>3602</v>
+      </c>
+      <c r="M843">
+        <v>2021</v>
+      </c>
+      <c r="N843">
+        <v>12</v>
+      </c>
+      <c r="O843">
+        <v>1612.777699090188</v>
+      </c>
+      <c r="P843">
+        <v>1622.096686513939</v>
+      </c>
+    </row>
+    <row r="844" spans="1:16">
+      <c r="A844" s="1">
+        <v>7</v>
+      </c>
+      <c r="B844">
+        <v>20210106</v>
+      </c>
+      <c r="C844" t="s">
+        <v>20</v>
+      </c>
+      <c r="D844" t="s">
+        <v>25</v>
+      </c>
+      <c r="E844" t="s">
+        <v>26</v>
+      </c>
+      <c r="F844" t="s">
+        <v>27</v>
+      </c>
+      <c r="G844" t="s">
+        <v>29</v>
+      </c>
+      <c r="H844" t="s">
+        <v>31</v>
+      </c>
+      <c r="I844">
+        <v>8</v>
+      </c>
+      <c r="J844" t="s">
+        <v>121</v>
+      </c>
+      <c r="K844" t="s">
+        <v>206</v>
+      </c>
+      <c r="L844">
+        <v>1536</v>
+      </c>
+      <c r="M844">
+        <v>2021</v>
+      </c>
+      <c r="N844">
+        <v>12</v>
+      </c>
+      <c r="O844">
+        <v>1612.75317763924</v>
+      </c>
+      <c r="P844">
+        <v>1621.073633384394</v>
+      </c>
+    </row>
+    <row r="845" spans="1:16">
+      <c r="A845" s="1">
+        <v>8</v>
+      </c>
+      <c r="B845">
+        <v>20210106</v>
+      </c>
+      <c r="C845" t="s">
+        <v>20</v>
+      </c>
+      <c r="D845" t="s">
+        <v>25</v>
+      </c>
+      <c r="E845" t="s">
+        <v>26</v>
+      </c>
+      <c r="F845" t="s">
+        <v>27</v>
+      </c>
+      <c r="G845" t="s">
+        <v>29</v>
+      </c>
+      <c r="H845" t="s">
+        <v>31</v>
+      </c>
+      <c r="I845">
+        <v>9</v>
+      </c>
+      <c r="J845" t="s">
+        <v>60</v>
+      </c>
+      <c r="K845" t="s">
+        <v>206</v>
+      </c>
+      <c r="L845">
+        <v>5745</v>
+      </c>
+      <c r="M845">
+        <v>2021</v>
+      </c>
+      <c r="N845">
+        <v>12</v>
+      </c>
+      <c r="O845">
+        <v>1484.700056393935</v>
+      </c>
+      <c r="P845">
+        <v>1500.669754466433</v>
+      </c>
+    </row>
+    <row r="846" spans="1:16">
+      <c r="A846" s="1">
+        <v>9</v>
+      </c>
+      <c r="B846">
+        <v>20210106</v>
+      </c>
+      <c r="C846" t="s">
+        <v>20</v>
+      </c>
+      <c r="D846" t="s">
+        <v>25</v>
+      </c>
+      <c r="E846" t="s">
+        <v>26</v>
+      </c>
+      <c r="F846" t="s">
+        <v>27</v>
+      </c>
+      <c r="G846" t="s">
+        <v>29</v>
+      </c>
+      <c r="H846" t="s">
+        <v>31</v>
+      </c>
+      <c r="I846">
+        <v>10</v>
+      </c>
+      <c r="J846" t="s">
+        <v>113</v>
+      </c>
+      <c r="K846" t="s">
+        <v>24</v>
+      </c>
+      <c r="L846">
+        <v>1540</v>
+      </c>
+      <c r="M846">
+        <v>2021</v>
+      </c>
+      <c r="N846">
+        <v>12</v>
+      </c>
+      <c r="O846">
+        <v>1471.258806600541</v>
+      </c>
+      <c r="P846">
+        <v>1487.224994712794</v>
+      </c>
+    </row>
+    <row r="847" spans="1:16">
+      <c r="A847" s="1">
+        <v>10</v>
+      </c>
+      <c r="B847">
+        <v>20210106</v>
+      </c>
+      <c r="C847" t="s">
+        <v>20</v>
+      </c>
+      <c r="D847" t="s">
+        <v>25</v>
+      </c>
+      <c r="E847" t="s">
+        <v>26</v>
+      </c>
+      <c r="F847" t="s">
+        <v>27</v>
+      </c>
+      <c r="G847" t="s">
+        <v>29</v>
+      </c>
+      <c r="H847" t="s">
+        <v>31</v>
+      </c>
+      <c r="I847">
+        <v>11</v>
+      </c>
+      <c r="J847" t="s">
+        <v>103</v>
+      </c>
+      <c r="K847" t="s">
+        <v>208</v>
+      </c>
+      <c r="L847">
+        <v>6018</v>
+      </c>
+      <c r="M847">
+        <v>2021</v>
+      </c>
+      <c r="N847">
+        <v>12</v>
+      </c>
+      <c r="O847">
+        <v>1455.723778998668</v>
+      </c>
+      <c r="P847">
+        <v>1471.85431428575</v>
+      </c>
+    </row>
+    <row r="848" spans="1:16">
+      <c r="A848" s="1">
+        <v>11</v>
+      </c>
+      <c r="B848">
+        <v>20210106</v>
+      </c>
+      <c r="C848" t="s">
+        <v>20</v>
+      </c>
+      <c r="D848" t="s">
+        <v>25</v>
+      </c>
+      <c r="E848" t="s">
+        <v>26</v>
+      </c>
+      <c r="F848" t="s">
+        <v>27</v>
+      </c>
+      <c r="G848" t="s">
+        <v>29</v>
+      </c>
+      <c r="H848" t="s">
+        <v>31</v>
+      </c>
+      <c r="I848">
+        <v>12</v>
+      </c>
+      <c r="J848" t="s">
+        <v>96</v>
+      </c>
+      <c r="K848" t="s">
+        <v>208</v>
+      </c>
+      <c r="L848">
+        <v>2353</v>
+      </c>
+      <c r="M848">
+        <v>2021</v>
+      </c>
+      <c r="N848">
+        <v>12</v>
+      </c>
+      <c r="O848">
+        <v>1513.195189552496</v>
+      </c>
+      <c r="P848">
+        <v>1524.09495124201</v>
+      </c>
+    </row>
+    <row r="849" spans="1:16">
+      <c r="A849" s="1">
+        <v>12</v>
+      </c>
+      <c r="B849">
+        <v>20210106</v>
+      </c>
+      <c r="C849" t="s">
+        <v>20</v>
+      </c>
+      <c r="D849" t="s">
+        <v>25</v>
+      </c>
+      <c r="E849" t="s">
+        <v>26</v>
+      </c>
+      <c r="F849" t="s">
+        <v>27</v>
+      </c>
+      <c r="G849" t="s">
+        <v>29</v>
+      </c>
+      <c r="H849" t="s">
+        <v>31</v>
+      </c>
+      <c r="I849">
+        <v>13</v>
+      </c>
+      <c r="J849" t="s">
+        <v>117</v>
+      </c>
+      <c r="K849" t="s">
+        <v>24</v>
+      </c>
+      <c r="L849">
+        <v>1488</v>
+      </c>
+      <c r="M849">
+        <v>2021</v>
+      </c>
+      <c r="N849">
+        <v>12</v>
+      </c>
+      <c r="O849">
+        <v>1431.082257565231</v>
+      </c>
+      <c r="P849">
+        <v>1447.07999220828</v>
+      </c>
+    </row>
+    <row r="850" spans="1:16">
+      <c r="A850" s="1">
+        <v>13</v>
+      </c>
+      <c r="B850">
+        <v>20210106</v>
+      </c>
+      <c r="C850" t="s">
+        <v>20</v>
+      </c>
+      <c r="D850" t="s">
+        <v>25</v>
+      </c>
+      <c r="E850" t="s">
+        <v>26</v>
+      </c>
+      <c r="F850" t="s">
+        <v>27</v>
+      </c>
+      <c r="G850" t="s">
+        <v>29</v>
+      </c>
+      <c r="H850" t="s">
+        <v>31</v>
+      </c>
+      <c r="I850">
+        <v>14</v>
+      </c>
+      <c r="J850" t="s">
+        <v>123</v>
+      </c>
+      <c r="K850" t="s">
+        <v>206</v>
+      </c>
+      <c r="L850">
+        <v>8125</v>
+      </c>
+      <c r="M850">
+        <v>2021</v>
+      </c>
+      <c r="N850">
+        <v>12</v>
+      </c>
+      <c r="O850">
+        <v>1457.163473326004</v>
+      </c>
+      <c r="P850">
+        <v>1470.185611599951</v>
+      </c>
+    </row>
+    <row r="851" spans="1:16">
+      <c r="A851" s="1">
+        <v>14</v>
+      </c>
+      <c r="B851">
+        <v>20210106</v>
+      </c>
+      <c r="C851" t="s">
+        <v>20</v>
+      </c>
+      <c r="D851" t="s">
+        <v>25</v>
+      </c>
+      <c r="E851" t="s">
+        <v>26</v>
+      </c>
+      <c r="F851" t="s">
+        <v>27</v>
+      </c>
+      <c r="G851" t="s">
+        <v>29</v>
+      </c>
+      <c r="H851" t="s">
+        <v>31</v>
+      </c>
+      <c r="I851">
+        <v>15</v>
+      </c>
+      <c r="J851" t="s">
+        <v>75</v>
+      </c>
+      <c r="K851" t="s">
+        <v>212</v>
+      </c>
+      <c r="L851">
+        <v>9172</v>
+      </c>
+      <c r="M851">
+        <v>2021</v>
+      </c>
+      <c r="N851">
+        <v>12</v>
+      </c>
+      <c r="O851">
+        <v>1405.06999360953</v>
+      </c>
+      <c r="P851">
+        <v>1421.053075052115</v>
+      </c>
+    </row>
+    <row r="852" spans="1:16">
+      <c r="A852" s="1">
+        <v>15</v>
+      </c>
+      <c r="B852">
+        <v>20210106</v>
+      </c>
+      <c r="C852" t="s">
+        <v>20</v>
+      </c>
+      <c r="D852" t="s">
+        <v>25</v>
+      </c>
+      <c r="E852" t="s">
+        <v>26</v>
+      </c>
+      <c r="F852" t="s">
+        <v>27</v>
+      </c>
+      <c r="G852" t="s">
+        <v>29</v>
+      </c>
+      <c r="H852" t="s">
+        <v>31</v>
+      </c>
+      <c r="I852">
+        <v>16</v>
+      </c>
+      <c r="J852" t="s">
+        <v>80</v>
+      </c>
+      <c r="K852" t="s">
+        <v>25</v>
+      </c>
+      <c r="L852">
+        <v>1496</v>
+      </c>
+      <c r="M852">
+        <v>2021</v>
+      </c>
+      <c r="N852">
+        <v>12</v>
+      </c>
+      <c r="O852">
+        <v>1541.756595031215</v>
+      </c>
+      <c r="P852">
+        <v>1546.653594834186</v>
+      </c>
+    </row>
+    <row r="853" spans="1:16">
+      <c r="A853" s="1">
+        <v>16</v>
+      </c>
+      <c r="B853">
+        <v>20210106</v>
+      </c>
+      <c r="C853" t="s">
+        <v>20</v>
+      </c>
+      <c r="D853" t="s">
+        <v>25</v>
+      </c>
+      <c r="E853" t="s">
+        <v>26</v>
+      </c>
+      <c r="F853" t="s">
+        <v>27</v>
+      </c>
+      <c r="G853" t="s">
+        <v>29</v>
+      </c>
+      <c r="H853" t="s">
+        <v>31</v>
+      </c>
+      <c r="I853">
+        <v>17</v>
+      </c>
+      <c r="J853" t="s">
+        <v>70</v>
+      </c>
+      <c r="K853" t="s">
+        <v>23</v>
+      </c>
+      <c r="L853">
+        <v>4</v>
+      </c>
+      <c r="M853">
+        <v>2021</v>
+      </c>
+      <c r="N853">
+        <v>12</v>
+      </c>
+      <c r="O853">
+        <v>1600.467065911287</v>
+      </c>
+      <c r="P853">
+        <v>1600.533507135795</v>
+      </c>
+    </row>
+    <row r="854" spans="1:16">
+      <c r="A854" s="1">
+        <v>17</v>
+      </c>
+      <c r="B854">
+        <v>20210106</v>
+      </c>
+      <c r="C854" t="s">
+        <v>20</v>
+      </c>
+      <c r="D854" t="s">
+        <v>25</v>
+      </c>
+      <c r="E854" t="s">
+        <v>26</v>
+      </c>
+      <c r="F854" t="s">
+        <v>27</v>
+      </c>
+      <c r="G854" t="s">
+        <v>29</v>
+      </c>
+      <c r="H854" t="s">
+        <v>31</v>
+      </c>
+      <c r="I854">
+        <v>18</v>
+      </c>
+      <c r="J854" t="s">
+        <v>115</v>
+      </c>
+      <c r="K854" t="s">
+        <v>24</v>
+      </c>
+      <c r="L854">
+        <v>1442</v>
+      </c>
+      <c r="M854">
+        <v>2021</v>
+      </c>
+      <c r="N854">
+        <v>12</v>
+      </c>
+      <c r="O854">
+        <v>1417.539471142607</v>
+      </c>
+      <c r="P854">
+        <v>1429.569971192919</v>
+      </c>
+    </row>
+    <row r="855" spans="1:16">
+      <c r="A855" s="1">
+        <v>18</v>
+      </c>
+      <c r="B855">
+        <v>20210106</v>
+      </c>
+      <c r="C855" t="s">
+        <v>20</v>
+      </c>
+      <c r="D855" t="s">
+        <v>25</v>
+      </c>
+      <c r="E855" t="s">
+        <v>26</v>
+      </c>
+      <c r="F855" t="s">
+        <v>27</v>
+      </c>
+      <c r="G855" t="s">
+        <v>29</v>
+      </c>
+      <c r="H855" t="s">
+        <v>31</v>
+      </c>
+      <c r="I855">
+        <v>19</v>
+      </c>
+      <c r="J855" t="s">
+        <v>45</v>
+      </c>
+      <c r="K855" t="s">
+        <v>25</v>
+      </c>
+      <c r="L855">
+        <v>44</v>
+      </c>
+      <c r="M855">
+        <v>2021</v>
+      </c>
+      <c r="N855">
+        <v>12</v>
+      </c>
+      <c r="O855">
+        <v>1583.104109784034</v>
+      </c>
+      <c r="P855">
+        <v>1582.259039517602</v>
+      </c>
+    </row>
+    <row r="856" spans="1:16">
+      <c r="A856" s="1">
+        <v>19</v>
+      </c>
+      <c r="B856">
+        <v>20210106</v>
+      </c>
+      <c r="C856" t="s">
+        <v>20</v>
+      </c>
+      <c r="D856" t="s">
+        <v>25</v>
+      </c>
+      <c r="E856" t="s">
+        <v>26</v>
+      </c>
+      <c r="F856" t="s">
+        <v>27</v>
+      </c>
+      <c r="G856" t="s">
+        <v>29</v>
+      </c>
+      <c r="H856" t="s">
+        <v>31</v>
+      </c>
+      <c r="I856">
+        <v>20</v>
+      </c>
+      <c r="J856" t="s">
+        <v>47</v>
+      </c>
+      <c r="K856" t="s">
+        <v>207</v>
+      </c>
+      <c r="L856">
+        <v>2750</v>
+      </c>
+      <c r="M856">
+        <v>2021</v>
+      </c>
+      <c r="N856">
+        <v>12</v>
+      </c>
+      <c r="O856">
+        <v>1465.155043964477</v>
+      </c>
+      <c r="P856">
+        <v>1471.577247108205</v>
+      </c>
+    </row>
+    <row r="857" spans="1:16">
+      <c r="A857" s="1">
+        <v>20</v>
+      </c>
+      <c r="B857">
+        <v>20210106</v>
+      </c>
+      <c r="C857" t="s">
+        <v>20</v>
+      </c>
+      <c r="D857" t="s">
+        <v>25</v>
+      </c>
+      <c r="E857" t="s">
+        <v>26</v>
+      </c>
+      <c r="F857" t="s">
+        <v>27</v>
+      </c>
+      <c r="G857" t="s">
+        <v>29</v>
+      </c>
+      <c r="H857" t="s">
+        <v>31</v>
+      </c>
+      <c r="I857">
+        <v>21</v>
+      </c>
+      <c r="J857" t="s">
+        <v>66</v>
+      </c>
+      <c r="K857" t="s">
+        <v>207</v>
+      </c>
+      <c r="L857">
+        <v>12573</v>
+      </c>
+      <c r="M857">
+        <v>2021</v>
+      </c>
+      <c r="N857">
+        <v>12</v>
+      </c>
+      <c r="O857">
+        <v>1427.312379942901</v>
+      </c>
+      <c r="P857">
+        <v>1435.597290818364</v>
+      </c>
+    </row>
+    <row r="858" spans="1:16">
+      <c r="A858" s="1">
+        <v>21</v>
+      </c>
+      <c r="B858">
+        <v>20210106</v>
+      </c>
+      <c r="C858" t="s">
+        <v>20</v>
+      </c>
+      <c r="D858" t="s">
+        <v>25</v>
+      </c>
+      <c r="E858" t="s">
+        <v>26</v>
+      </c>
+      <c r="F858" t="s">
+        <v>27</v>
+      </c>
+      <c r="G858" t="s">
+        <v>29</v>
+      </c>
+      <c r="H858" t="s">
+        <v>31</v>
+      </c>
+      <c r="I858">
+        <v>22</v>
+      </c>
+      <c r="J858" t="s">
+        <v>199</v>
+      </c>
+      <c r="K858" t="s">
+        <v>207</v>
+      </c>
+      <c r="L858">
+        <v>73</v>
+      </c>
+      <c r="M858">
+        <v>2021</v>
+      </c>
+      <c r="N858">
+        <v>12</v>
+      </c>
+      <c r="O858">
+        <v>1574.062205309011</v>
+      </c>
+      <c r="P858">
+        <v>1570.799294679003</v>
+      </c>
+    </row>
+    <row r="859" spans="1:16">
+      <c r="A859" s="1">
+        <v>22</v>
+      </c>
+      <c r="B859">
+        <v>20210106</v>
+      </c>
+      <c r="C859" t="s">
+        <v>20</v>
+      </c>
+      <c r="D859" t="s">
+        <v>25</v>
+      </c>
+      <c r="E859" t="s">
+        <v>26</v>
+      </c>
+      <c r="F859" t="s">
+        <v>27</v>
+      </c>
+      <c r="G859" t="s">
+        <v>29</v>
+      </c>
+      <c r="H859" t="s">
+        <v>31</v>
+      </c>
+      <c r="I859">
+        <v>23</v>
+      </c>
+      <c r="J859" t="s">
+        <v>169</v>
+      </c>
+      <c r="K859" t="s">
+        <v>208</v>
+      </c>
+      <c r="L859">
+        <v>15</v>
+      </c>
+      <c r="M859">
+        <v>2021</v>
+      </c>
+      <c r="N859">
+        <v>12</v>
+      </c>
+      <c r="O859">
+        <v>1506.781894087531</v>
+      </c>
+      <c r="P859">
+        <v>1507.141847392804</v>
+      </c>
+    </row>
+    <row r="860" spans="1:16">
+      <c r="A860" s="1">
+        <v>23</v>
+      </c>
+      <c r="B860">
+        <v>20210106</v>
+      </c>
+      <c r="C860" t="s">
+        <v>20</v>
+      </c>
+      <c r="D860" t="s">
+        <v>25</v>
+      </c>
+      <c r="E860" t="s">
+        <v>26</v>
+      </c>
+      <c r="F860" t="s">
+        <v>27</v>
+      </c>
+      <c r="G860" t="s">
+        <v>29</v>
+      </c>
+      <c r="H860" t="s">
+        <v>31</v>
+      </c>
+      <c r="I860">
+        <v>24</v>
+      </c>
+      <c r="J860" t="s">
+        <v>106</v>
+      </c>
+      <c r="K860" t="s">
+        <v>25</v>
+      </c>
+      <c r="L860">
+        <v>2349</v>
+      </c>
+      <c r="M860">
+        <v>2021</v>
+      </c>
+      <c r="N860">
+        <v>12</v>
+      </c>
+      <c r="O860">
+        <v>1404.649449763402</v>
+      </c>
+      <c r="P860">
+        <v>1411.664664027317</v>
+      </c>
+    </row>
+    <row r="861" spans="1:16">
+      <c r="A861" s="1">
+        <v>24</v>
+      </c>
+      <c r="B861">
+        <v>20210106</v>
+      </c>
+      <c r="C861" t="s">
+        <v>20</v>
+      </c>
+      <c r="D861" t="s">
+        <v>25</v>
+      </c>
+      <c r="E861" t="s">
+        <v>26</v>
+      </c>
+      <c r="F861" t="s">
+        <v>27</v>
+      </c>
+      <c r="G861" t="s">
+        <v>29</v>
+      </c>
+      <c r="H861" t="s">
+        <v>31</v>
+      </c>
+      <c r="I861">
+        <v>25</v>
+      </c>
+      <c r="J861" t="s">
+        <v>105</v>
+      </c>
+      <c r="K861" t="s">
+        <v>21</v>
+      </c>
+      <c r="L861">
+        <v>5635</v>
+      </c>
+      <c r="M861">
+        <v>2021</v>
+      </c>
+      <c r="N861">
+        <v>12</v>
+      </c>
+      <c r="O861">
+        <v>1367.185813787414</v>
+      </c>
+      <c r="P861">
+        <v>1376.054338451752</v>
+      </c>
+    </row>
+    <row r="862" spans="1:16">
+      <c r="A862" s="1">
+        <v>25</v>
+      </c>
+      <c r="B862">
+        <v>20210106</v>
+      </c>
+      <c r="C862" t="s">
+        <v>20</v>
+      </c>
+      <c r="D862" t="s">
+        <v>25</v>
+      </c>
+      <c r="E862" t="s">
+        <v>26</v>
+      </c>
+      <c r="F862" t="s">
+        <v>27</v>
+      </c>
+      <c r="G862" t="s">
+        <v>29</v>
+      </c>
+      <c r="H862" t="s">
+        <v>31</v>
+      </c>
+      <c r="I862">
+        <v>26</v>
+      </c>
+      <c r="J862" t="s">
+        <v>83</v>
+      </c>
+      <c r="K862" t="s">
+        <v>23</v>
+      </c>
+      <c r="L862">
+        <v>3651</v>
+      </c>
+      <c r="M862">
+        <v>2021</v>
+      </c>
+      <c r="N862">
+        <v>12</v>
+      </c>
+      <c r="O862">
+        <v>1411.117811075535</v>
+      </c>
+      <c r="P862">
+        <v>1415.638798872398</v>
+      </c>
+    </row>
+    <row r="863" spans="1:16">
+      <c r="A863" s="1">
+        <v>26</v>
+      </c>
+      <c r="B863">
+        <v>20210106</v>
+      </c>
+      <c r="C863" t="s">
+        <v>20</v>
+      </c>
+      <c r="D863" t="s">
+        <v>25</v>
+      </c>
+      <c r="E863" t="s">
+        <v>26</v>
+      </c>
+      <c r="F863" t="s">
+        <v>27</v>
+      </c>
+      <c r="G863" t="s">
+        <v>29</v>
+      </c>
+      <c r="H863" t="s">
+        <v>31</v>
+      </c>
+      <c r="I863">
+        <v>27</v>
+      </c>
+      <c r="J863" t="s">
+        <v>57</v>
+      </c>
+      <c r="K863" t="s">
+        <v>209</v>
+      </c>
+      <c r="L863">
+        <v>277</v>
+      </c>
+      <c r="M863">
+        <v>2021</v>
+      </c>
+      <c r="N863">
+        <v>12</v>
+      </c>
+      <c r="O863">
+        <v>1518.826305109073</v>
+      </c>
+      <c r="P863">
+        <v>1514.324998489416</v>
+      </c>
+    </row>
+    <row r="864" spans="1:16">
+      <c r="A864" s="1">
+        <v>27</v>
+      </c>
+      <c r="B864">
+        <v>20210106</v>
+      </c>
+      <c r="C864" t="s">
+        <v>20</v>
+      </c>
+      <c r="D864" t="s">
+        <v>25</v>
+      </c>
+      <c r="E864" t="s">
+        <v>26</v>
+      </c>
+      <c r="F864" t="s">
+        <v>27</v>
+      </c>
+      <c r="G864" t="s">
+        <v>29</v>
+      </c>
+      <c r="H864" t="s">
+        <v>31</v>
+      </c>
+      <c r="I864">
+        <v>28</v>
+      </c>
+      <c r="J864" t="s">
+        <v>168</v>
+      </c>
+      <c r="K864" t="s">
+        <v>208</v>
+      </c>
+      <c r="L864">
+        <v>3646</v>
+      </c>
+      <c r="M864">
+        <v>2021</v>
+      </c>
+      <c r="N864">
+        <v>12</v>
+      </c>
+      <c r="O864">
+        <v>1446.644998857531</v>
+      </c>
+      <c r="P864">
+        <v>1446.461073962195</v>
+      </c>
+    </row>
+    <row r="865" spans="1:16">
+      <c r="A865" s="1">
+        <v>28</v>
+      </c>
+      <c r="B865">
+        <v>20210106</v>
+      </c>
+      <c r="C865" t="s">
+        <v>20</v>
+      </c>
+      <c r="D865" t="s">
+        <v>25</v>
+      </c>
+      <c r="E865" t="s">
+        <v>26</v>
+      </c>
+      <c r="F865" t="s">
+        <v>27</v>
+      </c>
+      <c r="G865" t="s">
+        <v>29</v>
+      </c>
+      <c r="H865" t="s">
+        <v>31</v>
+      </c>
+      <c r="I865">
+        <v>29</v>
+      </c>
+      <c r="J865" t="s">
+        <v>99</v>
+      </c>
+      <c r="K865" t="s">
+        <v>208</v>
+      </c>
+      <c r="L865">
+        <v>1465</v>
+      </c>
+      <c r="M865">
+        <v>2021</v>
+      </c>
+      <c r="N865">
+        <v>12</v>
+      </c>
+      <c r="O865">
+        <v>1450.691888515181</v>
+      </c>
+      <c r="P865">
+        <v>1449.201978491099</v>
+      </c>
+    </row>
+    <row r="866" spans="1:16">
+      <c r="A866" s="1">
+        <v>29</v>
+      </c>
+      <c r="B866">
+        <v>20210106</v>
+      </c>
+      <c r="C866" t="s">
+        <v>20</v>
+      </c>
+      <c r="D866" t="s">
+        <v>25</v>
+      </c>
+      <c r="E866" t="s">
+        <v>26</v>
+      </c>
+      <c r="F866" t="s">
+        <v>27</v>
+      </c>
+      <c r="G866" t="s">
+        <v>29</v>
+      </c>
+      <c r="H866" t="s">
+        <v>31</v>
+      </c>
+      <c r="I866">
+        <v>30</v>
+      </c>
+      <c r="J866" t="s">
+        <v>174</v>
+      </c>
+      <c r="K866" t="s">
+        <v>222</v>
+      </c>
+      <c r="L866">
+        <v>2225</v>
+      </c>
+      <c r="M866">
+        <v>2021</v>
+      </c>
+      <c r="N866">
+        <v>12</v>
+      </c>
+      <c r="O866">
+        <v>1280.628474281253</v>
+      </c>
+      <c r="P866">
+        <v>1290.824981607153</v>
+      </c>
+    </row>
+    <row r="867" spans="1:16">
+      <c r="A867" s="1">
+        <v>30</v>
+      </c>
+      <c r="B867">
+        <v>20210106</v>
+      </c>
+      <c r="C867" t="s">
+        <v>20</v>
+      </c>
+      <c r="D867" t="s">
+        <v>25</v>
+      </c>
+      <c r="E867" t="s">
+        <v>26</v>
+      </c>
+      <c r="F867" t="s">
+        <v>27</v>
+      </c>
+      <c r="G867" t="s">
+        <v>29</v>
+      </c>
+      <c r="H867" t="s">
+        <v>31</v>
+      </c>
+      <c r="I867">
+        <v>31</v>
+      </c>
+      <c r="J867" t="s">
+        <v>171</v>
+      </c>
+      <c r="K867" t="s">
+        <v>230</v>
+      </c>
+      <c r="L867">
+        <v>3632</v>
+      </c>
+      <c r="M867">
+        <v>2021</v>
+      </c>
+      <c r="N867">
+        <v>12</v>
+      </c>
+      <c r="O867">
+        <v>1421.991479226711</v>
+      </c>
+      <c r="P867">
+        <v>1420.682160555203</v>
+      </c>
+    </row>
+    <row r="868" spans="1:16">
+      <c r="A868" s="1">
+        <v>31</v>
+      </c>
+      <c r="B868">
+        <v>20210106</v>
+      </c>
+      <c r="C868" t="s">
+        <v>20</v>
+      </c>
+      <c r="D868" t="s">
+        <v>25</v>
+      </c>
+      <c r="E868" t="s">
+        <v>26</v>
+      </c>
+      <c r="F868" t="s">
+        <v>27</v>
+      </c>
+      <c r="G868" t="s">
+        <v>29</v>
+      </c>
+      <c r="H868" t="s">
+        <v>31</v>
+      </c>
+      <c r="I868">
+        <v>32</v>
+      </c>
+      <c r="J868" t="s">
+        <v>61</v>
+      </c>
+      <c r="K868" t="s">
+        <v>210</v>
+      </c>
+      <c r="L868">
+        <v>3655</v>
+      </c>
+      <c r="M868">
+        <v>2021</v>
+      </c>
+      <c r="N868">
+        <v>12</v>
+      </c>
+      <c r="O868">
+        <v>1464.551212890838</v>
+      </c>
+      <c r="P868">
+        <v>1459.018636303041</v>
+      </c>
+    </row>
+    <row r="869" spans="1:16">
+      <c r="A869" s="1">
+        <v>32</v>
+      </c>
+      <c r="B869">
+        <v>20210106</v>
+      </c>
+      <c r="C869" t="s">
+        <v>20</v>
+      </c>
+      <c r="D869" t="s">
+        <v>25</v>
+      </c>
+      <c r="E869" t="s">
+        <v>26</v>
+      </c>
+      <c r="F869" t="s">
+        <v>27</v>
+      </c>
+      <c r="G869" t="s">
+        <v>29</v>
+      </c>
+      <c r="H869" t="s">
+        <v>31</v>
+      </c>
+      <c r="I869">
+        <v>33</v>
+      </c>
+      <c r="J869" t="s">
+        <v>142</v>
+      </c>
+      <c r="K869" t="s">
+        <v>24</v>
+      </c>
+      <c r="L869">
+        <v>3657</v>
+      </c>
+      <c r="M869">
+        <v>2021</v>
+      </c>
+      <c r="N869">
+        <v>12</v>
+      </c>
+      <c r="O869">
+        <v>1347.627749142914</v>
+      </c>
+      <c r="P869">
+        <v>1349.969014701431</v>
+      </c>
+    </row>
+    <row r="870" spans="1:16">
+      <c r="A870" s="1">
+        <v>33</v>
+      </c>
+      <c r="B870">
+        <v>20210106</v>
+      </c>
+      <c r="C870" t="s">
+        <v>20</v>
+      </c>
+      <c r="D870" t="s">
+        <v>25</v>
+      </c>
+      <c r="E870" t="s">
+        <v>26</v>
+      </c>
+      <c r="F870" t="s">
+        <v>27</v>
+      </c>
+      <c r="G870" t="s">
+        <v>29</v>
+      </c>
+      <c r="H870" t="s">
+        <v>31</v>
+      </c>
+      <c r="I870">
+        <v>34</v>
+      </c>
+      <c r="J870" t="s">
+        <v>204</v>
+      </c>
+      <c r="K870" t="s">
+        <v>25</v>
+      </c>
+      <c r="L870">
+        <v>6009</v>
+      </c>
+      <c r="M870">
+        <v>2021</v>
+      </c>
+      <c r="N870">
+        <v>12</v>
+      </c>
+      <c r="O870">
+        <v>1292.909343699437</v>
+      </c>
+      <c r="P870">
+        <v>1298.24445825269</v>
+      </c>
+    </row>
+    <row r="871" spans="1:16">
+      <c r="A871" s="1">
+        <v>34</v>
+      </c>
+      <c r="B871">
+        <v>20210106</v>
+      </c>
+      <c r="C871" t="s">
+        <v>20</v>
+      </c>
+      <c r="D871" t="s">
+        <v>25</v>
+      </c>
+      <c r="E871" t="s">
+        <v>26</v>
+      </c>
+      <c r="F871" t="s">
+        <v>27</v>
+      </c>
+      <c r="G871" t="s">
+        <v>29</v>
+      </c>
+      <c r="H871" t="s">
+        <v>31</v>
+      </c>
+      <c r="I871">
+        <v>35</v>
+      </c>
+      <c r="J871" t="s">
+        <v>87</v>
+      </c>
+      <c r="K871" t="s">
+        <v>23</v>
+      </c>
+      <c r="L871">
+        <v>1534</v>
+      </c>
+      <c r="M871">
+        <v>2021</v>
+      </c>
+      <c r="N871">
+        <v>12</v>
+      </c>
+      <c r="O871">
+        <v>1407.363386569454</v>
+      </c>
+      <c r="P871">
+        <v>1403.171232465459</v>
+      </c>
+    </row>
+    <row r="872" spans="1:16">
+      <c r="A872" s="1">
+        <v>35</v>
+      </c>
+      <c r="B872">
+        <v>20210106</v>
+      </c>
+      <c r="C872" t="s">
+        <v>20</v>
+      </c>
+      <c r="D872" t="s">
+        <v>25</v>
+      </c>
+      <c r="E872" t="s">
+        <v>26</v>
+      </c>
+      <c r="F872" t="s">
+        <v>27</v>
+      </c>
+      <c r="G872" t="s">
+        <v>29</v>
+      </c>
+      <c r="H872" t="s">
+        <v>31</v>
+      </c>
+      <c r="I872">
+        <v>36</v>
+      </c>
+      <c r="J872" t="s">
+        <v>110</v>
+      </c>
+      <c r="K872" t="s">
+        <v>212</v>
+      </c>
+      <c r="L872">
+        <v>1463</v>
+      </c>
+      <c r="M872">
+        <v>2021</v>
+      </c>
+      <c r="N872">
+        <v>12</v>
+      </c>
+      <c r="O872">
+        <v>1303.378411846371</v>
+      </c>
+      <c r="P872">
+        <v>1305.967787149227</v>
+      </c>
+    </row>
+    <row r="873" spans="1:16">
+      <c r="A873" s="1">
+        <v>36</v>
+      </c>
+      <c r="B873">
+        <v>20210106</v>
+      </c>
+      <c r="C873" t="s">
+        <v>20</v>
+      </c>
+      <c r="D873" t="s">
+        <v>25</v>
+      </c>
+      <c r="E873" t="s">
+        <v>26</v>
+      </c>
+      <c r="F873" t="s">
+        <v>27</v>
+      </c>
+      <c r="G873" t="s">
+        <v>29</v>
+      </c>
+      <c r="H873" t="s">
+        <v>31</v>
+      </c>
+      <c r="I873">
+        <v>37</v>
+      </c>
+      <c r="J873" t="s">
+        <v>89</v>
+      </c>
+      <c r="K873" t="s">
+        <v>215</v>
+      </c>
+      <c r="L873">
+        <v>5553</v>
+      </c>
+      <c r="M873">
+        <v>2021</v>
+      </c>
+      <c r="N873">
+        <v>12</v>
+      </c>
+      <c r="O873">
+        <v>1239.770308069416</v>
+      </c>
+      <c r="P873">
+        <v>1245.71364022305</v>
+      </c>
+    </row>
+    <row r="874" spans="1:16">
+      <c r="A874" s="1">
+        <v>37</v>
+      </c>
+      <c r="B874">
+        <v>20210106</v>
+      </c>
+      <c r="C874" t="s">
+        <v>20</v>
+      </c>
+      <c r="D874" t="s">
+        <v>25</v>
+      </c>
+      <c r="E874" t="s">
+        <v>26</v>
+      </c>
+      <c r="F874" t="s">
+        <v>27</v>
+      </c>
+      <c r="G874" t="s">
+        <v>29</v>
+      </c>
+      <c r="H874" t="s">
+        <v>31</v>
+      </c>
+      <c r="I874">
+        <v>38</v>
+      </c>
+      <c r="J874" t="s">
+        <v>128</v>
+      </c>
+      <c r="K874" t="s">
+        <v>23</v>
+      </c>
+      <c r="L874">
+        <v>1512</v>
+      </c>
+      <c r="M874">
+        <v>2021</v>
+      </c>
+      <c r="N874">
+        <v>12</v>
+      </c>
+      <c r="O874">
+        <v>1401.010935436658</v>
+      </c>
+      <c r="P874">
+        <v>1394.304140375829</v>
+      </c>
+    </row>
+    <row r="875" spans="1:16">
+      <c r="A875" s="1">
+        <v>38</v>
+      </c>
+      <c r="B875">
+        <v>20210106</v>
+      </c>
+      <c r="C875" t="s">
+        <v>20</v>
+      </c>
+      <c r="D875" t="s">
+        <v>25</v>
+      </c>
+      <c r="E875" t="s">
+        <v>26</v>
+      </c>
+      <c r="F875" t="s">
+        <v>27</v>
+      </c>
+      <c r="G875" t="s">
+        <v>29</v>
+      </c>
+      <c r="H875" t="s">
+        <v>31</v>
+      </c>
+      <c r="I875">
+        <v>39</v>
+      </c>
+      <c r="J875" t="s">
+        <v>201</v>
+      </c>
+      <c r="K875" t="s">
+        <v>207</v>
+      </c>
+      <c r="L875">
+        <v>5198</v>
+      </c>
+      <c r="M875">
+        <v>2021</v>
+      </c>
+      <c r="N875">
+        <v>12</v>
+      </c>
+      <c r="O875">
+        <v>1332.455008207607</v>
+      </c>
+      <c r="P875">
+        <v>1329.925260007124</v>
+      </c>
+    </row>
+    <row r="876" spans="1:16">
+      <c r="A876" s="1">
+        <v>39</v>
+      </c>
+      <c r="B876">
+        <v>20210106</v>
+      </c>
+      <c r="C876" t="s">
+        <v>20</v>
+      </c>
+      <c r="D876" t="s">
+        <v>25</v>
+      </c>
+      <c r="E876" t="s">
+        <v>26</v>
+      </c>
+      <c r="F876" t="s">
+        <v>27</v>
+      </c>
+      <c r="G876" t="s">
+        <v>29</v>
+      </c>
+      <c r="H876" t="s">
+        <v>31</v>
+      </c>
+      <c r="I876">
+        <v>40</v>
+      </c>
+      <c r="J876" t="s">
+        <v>119</v>
+      </c>
+      <c r="K876" t="s">
+        <v>219</v>
+      </c>
+      <c r="L876">
+        <v>100</v>
+      </c>
+      <c r="M876">
+        <v>2021</v>
+      </c>
+      <c r="N876">
+        <v>12</v>
+      </c>
+      <c r="O876">
+        <v>1280.311269036153</v>
+      </c>
+      <c r="P876">
+        <v>1280.529823203688</v>
+      </c>
+    </row>
+    <row r="877" spans="1:16">
+      <c r="A877" s="1">
+        <v>40</v>
+      </c>
+      <c r="B877">
+        <v>20210106</v>
+      </c>
+      <c r="C877" t="s">
+        <v>20</v>
+      </c>
+      <c r="D877" t="s">
+        <v>25</v>
+      </c>
+      <c r="E877" t="s">
+        <v>26</v>
+      </c>
+      <c r="F877" t="s">
+        <v>27</v>
+      </c>
+      <c r="G877" t="s">
+        <v>29</v>
+      </c>
+      <c r="H877" t="s">
+        <v>31</v>
+      </c>
+      <c r="I877">
+        <v>41</v>
+      </c>
+      <c r="J877" t="s">
+        <v>139</v>
+      </c>
+      <c r="K877" t="s">
+        <v>220</v>
+      </c>
+      <c r="L877">
+        <v>12673</v>
+      </c>
+      <c r="M877">
+        <v>2021</v>
+      </c>
+      <c r="N877">
+        <v>12</v>
+      </c>
+      <c r="O877">
+        <v>1321.171133530785</v>
+      </c>
+      <c r="P877">
+        <v>1317.471407386312</v>
+      </c>
+    </row>
+    <row r="878" spans="1:16">
+      <c r="A878" s="1">
+        <v>41</v>
+      </c>
+      <c r="B878">
+        <v>20210106</v>
+      </c>
+      <c r="C878" t="s">
+        <v>20</v>
+      </c>
+      <c r="D878" t="s">
+        <v>25</v>
+      </c>
+      <c r="E878" t="s">
+        <v>26</v>
+      </c>
+      <c r="F878" t="s">
+        <v>27</v>
+      </c>
+      <c r="G878" t="s">
+        <v>29</v>
+      </c>
+      <c r="H878" t="s">
+        <v>31</v>
+      </c>
+      <c r="I878">
+        <v>42</v>
+      </c>
+      <c r="J878" t="s">
+        <v>147</v>
+      </c>
+      <c r="K878" t="s">
+        <v>24</v>
+      </c>
+      <c r="L878">
+        <v>1522</v>
+      </c>
+      <c r="M878">
+        <v>2021</v>
+      </c>
+      <c r="N878">
+        <v>12</v>
+      </c>
+      <c r="O878">
+        <v>1341.657611453697</v>
+      </c>
+      <c r="P878">
+        <v>1335.444719009562</v>
+      </c>
+    </row>
+    <row r="879" spans="1:16">
+      <c r="A879" s="1">
+        <v>42</v>
+      </c>
+      <c r="B879">
+        <v>20210106</v>
+      </c>
+      <c r="C879" t="s">
+        <v>20</v>
+      </c>
+      <c r="D879" t="s">
+        <v>25</v>
+      </c>
+      <c r="E879" t="s">
+        <v>26</v>
+      </c>
+      <c r="F879" t="s">
+        <v>27</v>
+      </c>
+      <c r="G879" t="s">
+        <v>29</v>
+      </c>
+      <c r="H879" t="s">
+        <v>31</v>
+      </c>
+      <c r="I879">
+        <v>43</v>
+      </c>
+      <c r="J879" t="s">
+        <v>170</v>
+      </c>
+      <c r="K879" t="s">
+        <v>23</v>
+      </c>
+      <c r="L879">
+        <v>1538</v>
+      </c>
+      <c r="M879">
+        <v>2021</v>
+      </c>
+      <c r="N879">
+        <v>12</v>
+      </c>
+      <c r="O879">
+        <v>1356.838988917224</v>
+      </c>
+      <c r="P879">
+        <v>1348.48875366768</v>
+      </c>
+    </row>
+    <row r="880" spans="1:16">
+      <c r="A880" s="1">
+        <v>43</v>
+      </c>
+      <c r="B880">
+        <v>20210106</v>
+      </c>
+      <c r="C880" t="s">
+        <v>20</v>
+      </c>
+      <c r="D880" t="s">
+        <v>25</v>
+      </c>
+      <c r="E880" t="s">
+        <v>26</v>
+      </c>
+      <c r="F880" t="s">
+        <v>27</v>
+      </c>
+      <c r="G880" t="s">
+        <v>29</v>
+      </c>
+      <c r="H880" t="s">
+        <v>31</v>
+      </c>
+      <c r="I880">
+        <v>44</v>
+      </c>
+      <c r="J880" t="s">
+        <v>39</v>
+      </c>
+      <c r="K880" t="s">
+        <v>206</v>
+      </c>
+      <c r="L880">
+        <v>259</v>
+      </c>
+      <c r="M880">
+        <v>2021</v>
+      </c>
+      <c r="N880">
+        <v>12</v>
+      </c>
+      <c r="O880">
+        <v>1443.01253230656</v>
+      </c>
+      <c r="P880">
+        <v>1427.103760187719</v>
+      </c>
+    </row>
+    <row r="881" spans="1:16">
+      <c r="A881" s="1">
+        <v>44</v>
+      </c>
+      <c r="B881">
+        <v>20210106</v>
+      </c>
+      <c r="C881" t="s">
+        <v>20</v>
+      </c>
+      <c r="D881" t="s">
+        <v>25</v>
+      </c>
+      <c r="E881" t="s">
+        <v>26</v>
+      </c>
+      <c r="F881" t="s">
+        <v>27</v>
+      </c>
+      <c r="G881" t="s">
+        <v>29</v>
+      </c>
+      <c r="H881" t="s">
+        <v>31</v>
+      </c>
+      <c r="I881">
+        <v>45</v>
+      </c>
+      <c r="J881" t="s">
+        <v>92</v>
+      </c>
+      <c r="K881" t="s">
+        <v>210</v>
+      </c>
+      <c r="L881">
+        <v>2162</v>
+      </c>
+      <c r="M881">
+        <v>2021</v>
+      </c>
+      <c r="N881">
+        <v>12</v>
+      </c>
+      <c r="O881">
+        <v>1220.209622130456</v>
+      </c>
+      <c r="P881">
+        <v>1219.395212656068</v>
+      </c>
+    </row>
+    <row r="882" spans="1:16">
+      <c r="A882" s="1">
+        <v>45</v>
+      </c>
+      <c r="B882">
+        <v>20210106</v>
+      </c>
+      <c r="C882" t="s">
+        <v>20</v>
+      </c>
+      <c r="D882" t="s">
+        <v>25</v>
+      </c>
+      <c r="E882" t="s">
+        <v>26</v>
+      </c>
+      <c r="F882" t="s">
+        <v>27</v>
+      </c>
+      <c r="G882" t="s">
+        <v>29</v>
+      </c>
+      <c r="H882" t="s">
+        <v>31</v>
+      </c>
+      <c r="I882">
+        <v>46</v>
+      </c>
+      <c r="J882" t="s">
+        <v>90</v>
+      </c>
+      <c r="K882" t="s">
+        <v>212</v>
+      </c>
+      <c r="L882">
+        <v>9159</v>
+      </c>
+      <c r="M882">
+        <v>2021</v>
+      </c>
+      <c r="N882">
+        <v>12</v>
+      </c>
+      <c r="O882">
+        <v>1312.407882319506</v>
+      </c>
+      <c r="P882">
+        <v>1304.346281977989</v>
+      </c>
+    </row>
+    <row r="883" spans="1:16">
+      <c r="A883" s="1">
+        <v>46</v>
+      </c>
+      <c r="B883">
+        <v>20210106</v>
+      </c>
+      <c r="C883" t="s">
+        <v>20</v>
+      </c>
+      <c r="D883" t="s">
+        <v>25</v>
+      </c>
+      <c r="E883" t="s">
+        <v>26</v>
+      </c>
+      <c r="F883" t="s">
+        <v>27</v>
+      </c>
+      <c r="G883" t="s">
+        <v>29</v>
+      </c>
+      <c r="H883" t="s">
+        <v>31</v>
+      </c>
+      <c r="I883">
+        <v>47</v>
+      </c>
+      <c r="J883" t="s">
+        <v>74</v>
+      </c>
+      <c r="K883" t="s">
+        <v>208</v>
+      </c>
+      <c r="L883">
+        <v>3597</v>
+      </c>
+      <c r="M883">
+        <v>2021</v>
+      </c>
+      <c r="N883">
+        <v>12</v>
+      </c>
+      <c r="O883">
+        <v>1407.685087274598</v>
+      </c>
+      <c r="P883">
+        <v>1391.468352437305</v>
+      </c>
+    </row>
+    <row r="884" spans="1:16">
+      <c r="A884" s="1">
+        <v>47</v>
+      </c>
+      <c r="B884">
+        <v>20210106</v>
+      </c>
+      <c r="C884" t="s">
+        <v>20</v>
+      </c>
+      <c r="D884" t="s">
+        <v>25</v>
+      </c>
+      <c r="E884" t="s">
+        <v>26</v>
+      </c>
+      <c r="F884" t="s">
+        <v>27</v>
+      </c>
+      <c r="G884" t="s">
+        <v>29</v>
+      </c>
+      <c r="H884" t="s">
+        <v>31</v>
+      </c>
+      <c r="I884">
+        <v>48</v>
+      </c>
+      <c r="J884" t="s">
+        <v>202</v>
+      </c>
+      <c r="K884" t="s">
+        <v>25</v>
+      </c>
+      <c r="L884">
+        <v>2832</v>
+      </c>
+      <c r="M884">
+        <v>2021</v>
+      </c>
+      <c r="N884">
+        <v>12</v>
+      </c>
+      <c r="O884">
+        <v>1312.951615633663</v>
+      </c>
+      <c r="P884">
+        <v>1302.850597874399</v>
+      </c>
+    </row>
+    <row r="885" spans="1:16">
+      <c r="A885" s="1">
+        <v>48</v>
+      </c>
+      <c r="B885">
+        <v>20210106</v>
+      </c>
+      <c r="C885" t="s">
+        <v>20</v>
+      </c>
+      <c r="D885" t="s">
+        <v>25</v>
+      </c>
+      <c r="E885" t="s">
+        <v>26</v>
+      </c>
+      <c r="F885" t="s">
+        <v>27</v>
+      </c>
+      <c r="G885" t="s">
+        <v>29</v>
+      </c>
+      <c r="H885" t="s">
+        <v>31</v>
+      </c>
+      <c r="I885">
+        <v>49</v>
+      </c>
+      <c r="J885" t="s">
+        <v>200</v>
+      </c>
+      <c r="K885" t="s">
+        <v>207</v>
+      </c>
+      <c r="L885">
+        <v>2359</v>
+      </c>
+      <c r="M885">
+        <v>2021</v>
+      </c>
+      <c r="N885">
+        <v>12</v>
+      </c>
+      <c r="O885">
+        <v>1291.911094052266</v>
+      </c>
+      <c r="P885">
+        <v>1282.316782243586</v>
+      </c>
+    </row>
+    <row r="886" spans="1:16">
+      <c r="A886" s="1">
+        <v>49</v>
+      </c>
+      <c r="B886">
+        <v>20210106</v>
+      </c>
+      <c r="C886" t="s">
+        <v>20</v>
+      </c>
+      <c r="D886" t="s">
+        <v>25</v>
+      </c>
+      <c r="E886" t="s">
+        <v>26</v>
+      </c>
+      <c r="F886" t="s">
+        <v>27</v>
+      </c>
+      <c r="G886" t="s">
+        <v>29</v>
+      </c>
+      <c r="H886" t="s">
+        <v>31</v>
+      </c>
+      <c r="I886">
+        <v>50</v>
+      </c>
+      <c r="J886" t="s">
+        <v>112</v>
+      </c>
+      <c r="K886" t="s">
+        <v>24</v>
+      </c>
+      <c r="L886">
+        <v>179</v>
+      </c>
+      <c r="M886">
+        <v>2021</v>
+      </c>
+      <c r="N886">
+        <v>12</v>
+      </c>
+      <c r="O886">
+        <v>1295.131231727661</v>
+      </c>
+      <c r="P886">
+        <v>1284.308923690387</v>
+      </c>
+    </row>
+    <row r="887" spans="1:16">
+      <c r="A887" s="1">
+        <v>50</v>
+      </c>
+      <c r="B887">
+        <v>20210106</v>
+      </c>
+      <c r="C887" t="s">
+        <v>20</v>
+      </c>
+      <c r="D887" t="s">
+        <v>25</v>
+      </c>
+      <c r="E887" t="s">
+        <v>26</v>
+      </c>
+      <c r="F887" t="s">
+        <v>27</v>
+      </c>
+      <c r="G887" t="s">
+        <v>29</v>
+      </c>
+      <c r="H887" t="s">
+        <v>31</v>
+      </c>
+      <c r="I887">
+        <v>51</v>
+      </c>
+      <c r="J887" t="s">
+        <v>49</v>
+      </c>
+      <c r="K887" t="s">
+        <v>21</v>
+      </c>
+      <c r="L887">
+        <v>1504</v>
+      </c>
+      <c r="M887">
+        <v>2021</v>
+      </c>
+      <c r="N887">
+        <v>12</v>
+      </c>
+      <c r="O887">
+        <v>1351.761805300497</v>
+      </c>
+      <c r="P887">
+        <v>1335.793234029684</v>
+      </c>
+    </row>
+    <row r="888" spans="1:16">
+      <c r="A888" s="1">
+        <v>51</v>
+      </c>
+      <c r="B888">
+        <v>20210106</v>
+      </c>
+      <c r="C888" t="s">
+        <v>20</v>
+      </c>
+      <c r="D888" t="s">
+        <v>25</v>
+      </c>
+      <c r="E888" t="s">
+        <v>26</v>
+      </c>
+      <c r="F888" t="s">
+        <v>27</v>
+      </c>
+      <c r="G888" t="s">
+        <v>29</v>
+      </c>
+      <c r="H888" t="s">
+        <v>31</v>
+      </c>
+      <c r="I888">
+        <v>52</v>
+      </c>
+      <c r="J888" t="s">
+        <v>88</v>
+      </c>
+      <c r="K888" t="s">
+        <v>214</v>
+      </c>
+      <c r="L888">
+        <v>3623</v>
+      </c>
+      <c r="M888">
+        <v>2021</v>
+      </c>
+      <c r="N888">
+        <v>12</v>
+      </c>
+      <c r="O888">
+        <v>1313.466535643071</v>
+      </c>
+      <c r="P888">
+        <v>1299.328167206501</v>
+      </c>
+    </row>
+    <row r="889" spans="1:16">
+      <c r="A889" s="1">
+        <v>52</v>
+      </c>
+      <c r="B889">
+        <v>20210106</v>
+      </c>
+      <c r="C889" t="s">
+        <v>20</v>
+      </c>
+      <c r="D889" t="s">
+        <v>25</v>
+      </c>
+      <c r="E889" t="s">
+        <v>26</v>
+      </c>
+      <c r="F889" t="s">
+        <v>27</v>
+      </c>
+      <c r="G889" t="s">
+        <v>29</v>
+      </c>
+      <c r="H889" t="s">
+        <v>31</v>
+      </c>
+      <c r="I889">
+        <v>53</v>
+      </c>
+      <c r="J889" t="s">
+        <v>134</v>
+      </c>
+      <c r="K889" t="s">
+        <v>25</v>
+      </c>
+      <c r="L889">
+        <v>12165</v>
+      </c>
+      <c r="M889">
+        <v>2021</v>
+      </c>
+      <c r="N889">
+        <v>12</v>
+      </c>
+      <c r="O889">
+        <v>1349.198908745428</v>
+      </c>
+      <c r="P889">
+        <v>1331.422522718259</v>
+      </c>
+    </row>
+    <row r="890" spans="1:16">
+      <c r="A890" s="1">
+        <v>53</v>
+      </c>
+      <c r="B890">
+        <v>20210106</v>
+      </c>
+      <c r="C890" t="s">
+        <v>20</v>
+      </c>
+      <c r="D890" t="s">
+        <v>25</v>
+      </c>
+      <c r="E890" t="s">
+        <v>26</v>
+      </c>
+      <c r="F890" t="s">
+        <v>27</v>
+      </c>
+      <c r="G890" t="s">
+        <v>29</v>
+      </c>
+      <c r="H890" t="s">
+        <v>31</v>
+      </c>
+      <c r="I890">
+        <v>54</v>
+      </c>
+      <c r="J890" t="s">
+        <v>181</v>
+      </c>
+      <c r="K890" t="s">
+        <v>210</v>
+      </c>
+      <c r="L890">
+        <v>2766</v>
+      </c>
+      <c r="M890">
+        <v>2021</v>
+      </c>
+      <c r="N890">
+        <v>12</v>
+      </c>
+      <c r="O890">
+        <v>1224.115748827129</v>
+      </c>
+      <c r="P890">
+        <v>1214.057312886638</v>
+      </c>
+    </row>
+    <row r="891" spans="1:16">
+      <c r="A891" s="1">
+        <v>54</v>
+      </c>
+      <c r="B891">
+        <v>20210106</v>
+      </c>
+      <c r="C891" t="s">
+        <v>20</v>
+      </c>
+      <c r="D891" t="s">
+        <v>25</v>
+      </c>
+      <c r="E891" t="s">
+        <v>26</v>
+      </c>
+      <c r="F891" t="s">
+        <v>27</v>
+      </c>
+      <c r="G891" t="s">
+        <v>29</v>
+      </c>
+      <c r="H891" t="s">
+        <v>31</v>
+      </c>
+      <c r="I891">
+        <v>55</v>
+      </c>
+      <c r="J891" t="s">
+        <v>55</v>
+      </c>
+      <c r="K891" t="s">
+        <v>21</v>
+      </c>
+      <c r="L891">
+        <v>5646</v>
+      </c>
+      <c r="M891">
+        <v>2021</v>
+      </c>
+      <c r="N891">
+        <v>12</v>
+      </c>
+      <c r="O891">
+        <v>1271.077273410675</v>
+      </c>
+      <c r="P891">
+        <v>1256.932948060463</v>
+      </c>
+    </row>
+    <row r="892" spans="1:16">
+      <c r="A892" s="1">
+        <v>55</v>
+      </c>
+      <c r="B892">
+        <v>20210106</v>
+      </c>
+      <c r="C892" t="s">
+        <v>20</v>
+      </c>
+      <c r="D892" t="s">
+        <v>25</v>
+      </c>
+      <c r="E892" t="s">
+        <v>26</v>
+      </c>
+      <c r="F892" t="s">
+        <v>27</v>
+      </c>
+      <c r="G892" t="s">
+        <v>29</v>
+      </c>
+      <c r="H892" t="s">
+        <v>31</v>
+      </c>
+      <c r="I892">
+        <v>56</v>
+      </c>
+      <c r="J892" t="s">
+        <v>52</v>
+      </c>
+      <c r="K892" t="s">
+        <v>21</v>
+      </c>
+      <c r="L892">
+        <v>5166</v>
+      </c>
+      <c r="M892">
+        <v>2021</v>
+      </c>
+      <c r="N892">
+        <v>12</v>
+      </c>
+      <c r="O892">
+        <v>1286.541859402356</v>
+      </c>
+      <c r="P892">
+        <v>1270.325475456785</v>
+      </c>
+    </row>
+    <row r="893" spans="1:16">
+      <c r="A893" s="1">
+        <v>56</v>
+      </c>
+      <c r="B893">
+        <v>20210106</v>
+      </c>
+      <c r="C893" t="s">
+        <v>20</v>
+      </c>
+      <c r="D893" t="s">
+        <v>25</v>
+      </c>
+      <c r="E893" t="s">
+        <v>26</v>
+      </c>
+      <c r="F893" t="s">
+        <v>27</v>
+      </c>
+      <c r="G893" t="s">
+        <v>29</v>
+      </c>
+      <c r="H893" t="s">
+        <v>31</v>
+      </c>
+      <c r="I893">
+        <v>57</v>
+      </c>
+      <c r="J893" t="s">
+        <v>64</v>
+      </c>
+      <c r="K893" t="s">
+        <v>208</v>
+      </c>
+      <c r="L893">
+        <v>2768</v>
+      </c>
+      <c r="M893">
+        <v>2021</v>
+      </c>
+      <c r="N893">
+        <v>12</v>
+      </c>
+      <c r="O893">
+        <v>1473.494932061238</v>
+      </c>
+      <c r="P893">
+        <v>1442.294577303382</v>
+      </c>
+    </row>
+    <row r="894" spans="1:16">
+      <c r="A894" s="1">
+        <v>57</v>
+      </c>
+      <c r="B894">
+        <v>20210106</v>
+      </c>
+      <c r="C894" t="s">
+        <v>20</v>
+      </c>
+      <c r="D894" t="s">
+        <v>25</v>
+      </c>
+      <c r="E894" t="s">
+        <v>26</v>
+      </c>
+      <c r="F894" t="s">
+        <v>27</v>
+      </c>
+      <c r="G894" t="s">
+        <v>29</v>
+      </c>
+      <c r="H894" t="s">
+        <v>31</v>
+      </c>
+      <c r="I894">
+        <v>58</v>
+      </c>
+      <c r="J894" t="s">
+        <v>81</v>
+      </c>
+      <c r="K894" t="s">
+        <v>214</v>
+      </c>
+      <c r="L894">
+        <v>5182</v>
+      </c>
+      <c r="M894">
+        <v>2021</v>
+      </c>
+      <c r="N894">
+        <v>12</v>
+      </c>
+      <c r="O894">
+        <v>1215.22417316293</v>
+      </c>
+      <c r="P894">
+        <v>1201.71821296615</v>
+      </c>
+    </row>
+    <row r="895" spans="1:16">
+      <c r="A895" s="1">
+        <v>58</v>
+      </c>
+      <c r="B895">
+        <v>20210106</v>
+      </c>
+      <c r="C895" t="s">
+        <v>20</v>
+      </c>
+      <c r="D895" t="s">
+        <v>25</v>
+      </c>
+      <c r="E895" t="s">
+        <v>26</v>
+      </c>
+      <c r="F895" t="s">
+        <v>27</v>
+      </c>
+      <c r="G895" t="s">
+        <v>29</v>
+      </c>
+      <c r="H895" t="s">
+        <v>31</v>
+      </c>
+      <c r="I895">
+        <v>59</v>
+      </c>
+      <c r="J895" t="s">
+        <v>111</v>
+      </c>
+      <c r="K895" t="s">
+        <v>214</v>
+      </c>
+      <c r="L895">
+        <v>5942</v>
+      </c>
+      <c r="M895">
+        <v>2021</v>
+      </c>
+      <c r="N895">
+        <v>12</v>
+      </c>
+      <c r="O895">
+        <v>1122.861047506328</v>
+      </c>
+      <c r="P895">
+        <v>1113.418227889658</v>
+      </c>
+    </row>
+    <row r="896" spans="1:16">
+      <c r="A896" s="1">
+        <v>59</v>
+      </c>
+      <c r="B896">
+        <v>20210106</v>
+      </c>
+      <c r="C896" t="s">
+        <v>20</v>
+      </c>
+      <c r="D896" t="s">
+        <v>25</v>
+      </c>
+      <c r="E896" t="s">
+        <v>26</v>
+      </c>
+      <c r="F896" t="s">
+        <v>27</v>
+      </c>
+      <c r="G896" t="s">
+        <v>29</v>
+      </c>
+      <c r="H896" t="s">
+        <v>31</v>
+      </c>
+      <c r="I896">
+        <v>60</v>
+      </c>
+      <c r="J896" t="s">
+        <v>102</v>
+      </c>
+      <c r="K896" t="s">
+        <v>214</v>
+      </c>
+      <c r="L896">
+        <v>8010</v>
+      </c>
+      <c r="M896">
+        <v>2021</v>
+      </c>
+      <c r="N896">
+        <v>12</v>
+      </c>
+      <c r="O896">
+        <v>1171.941624493662</v>
+      </c>
+      <c r="P896">
+        <v>1158.965900303723</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
